--- a/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
+++ b/TMS_API/DMS.API/Template/TempTrinhKy/KeKhaiGiaChiTiet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\D2S\TMS\TMS_API\DMS.API\Template\TempTrinhKy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F3CD11-DFB6-42E1-A003-D9D642763153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52CF5ECE-69FE-4B5B-8BD2-5E7430B3636D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5110B65B-2584-4786-B3E6-A87A7F937D61}"/>
   </bookViews>
@@ -316,7 +316,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +463,11 @@
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -543,7 +548,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -598,22 +603,7 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -654,6 +644,15 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="23" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1033,8 +1032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE7DFD47-B1DE-4462-AE31-997A9592707F}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1047,128 +1046,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="58" t="s">
+      <c r="E2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
     </row>
     <row r="3" spans="1:9" ht="15.6">
       <c r="A3" s="2"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="15.6">
       <c r="A4" s="5"/>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="G4" s="45"/>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
     </row>
     <row r="5" spans="1:9" ht="15.6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:9" ht="15.6">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
     </row>
     <row r="7" spans="1:9" ht="15.6">
       <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="51" t="s">
+      <c r="A8" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57" t="s">
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.8">
-      <c r="A9" s="52"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
       <c r="E9" s="8" t="s">
         <v>15</v>
       </c>
@@ -1181,7 +1180,7 @@
       <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="55"/>
     </row>
     <row r="10" spans="1:9" ht="16.2">
       <c r="A10" s="9" t="s">
@@ -1211,24 +1210,14 @@
       <c r="D11" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="20">
-        <v>21220</v>
-      </c>
-      <c r="F11" s="21">
-        <v>21370</v>
-      </c>
-      <c r="G11" s="20">
-        <f>F11-E11</f>
-        <v>150</v>
-      </c>
-      <c r="H11" s="22">
-        <f>(F11-E11)/E11</f>
-        <v>7.0688030160226201E-3</v>
-      </c>
-      <c r="I11" s="40"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
     </row>
     <row r="12" spans="1:9" ht="16.2">
-      <c r="A12" s="23">
+      <c r="A12" s="20">
         <v>2</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1240,24 +1229,14 @@
       <c r="D12" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="20">
-        <v>20740</v>
-      </c>
-      <c r="F12" s="21">
-        <v>20890</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" ref="G12:G19" si="0">F12-E12</f>
-        <v>150</v>
-      </c>
-      <c r="H12" s="22">
-        <f t="shared" ref="H12:H19" si="1">(F12-E12)/E12</f>
-        <v>7.2324011571841852E-3</v>
-      </c>
-      <c r="I12" s="41"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="16.2">
-      <c r="A13" s="23">
+      <c r="A13" s="20">
         <v>3</v>
       </c>
       <c r="B13" s="17" t="s">
@@ -1269,24 +1248,14 @@
       <c r="D13" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="20">
-        <v>19800</v>
-      </c>
-      <c r="F13" s="21">
-        <v>19780</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="0"/>
-        <v>-20</v>
-      </c>
-      <c r="H13" s="22">
-        <f t="shared" si="1"/>
-        <v>-1.0101010101010101E-3</v>
-      </c>
-      <c r="I13" s="41"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="39"/>
     </row>
     <row r="14" spans="1:9" ht="16.2">
-      <c r="A14" s="23">
+      <c r="A14" s="20">
         <v>4</v>
       </c>
       <c r="B14" s="17" t="s">
@@ -1298,21 +1267,11 @@
       <c r="D14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="20">
-        <v>19350</v>
-      </c>
-      <c r="F14" s="21">
-        <v>19370</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H14" s="22">
-        <f t="shared" si="1"/>
-        <v>1.0335917312661498E-3</v>
-      </c>
-      <c r="I14" s="42"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="40"/>
     </row>
     <row r="15" spans="1:9" ht="16.2">
       <c r="A15" s="9" t="s">
@@ -1323,43 +1282,33 @@
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="12"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="25"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="16.2">
       <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="20">
-        <v>21330</v>
-      </c>
-      <c r="F16" s="21">
-        <v>21490</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H16" s="22">
-        <f t="shared" si="1"/>
-        <v>7.5011720581340839E-3</v>
-      </c>
-      <c r="I16" s="40"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
     </row>
     <row r="17" spans="1:9" ht="16.2">
-      <c r="A17" s="23">
+      <c r="A17" s="20">
         <v>2</v>
       </c>
       <c r="B17" s="17" t="s">
@@ -1371,24 +1320,14 @@
       <c r="D17" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="20">
-        <v>20840</v>
-      </c>
-      <c r="F17" s="21">
-        <v>21000</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="H17" s="22">
-        <f t="shared" si="1"/>
-        <v>7.677543186180422E-3</v>
-      </c>
-      <c r="I17" s="41"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="39"/>
     </row>
     <row r="18" spans="1:9" ht="16.2">
-      <c r="A18" s="23">
+      <c r="A18" s="20">
         <v>3</v>
       </c>
       <c r="B18" s="17" t="s">
@@ -1400,24 +1339,14 @@
       <c r="D18" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20">
-        <v>19890</v>
-      </c>
-      <c r="F18" s="21">
-        <v>19860</v>
-      </c>
-      <c r="G18" s="20">
-        <f t="shared" si="0"/>
-        <v>-30</v>
-      </c>
-      <c r="H18" s="22">
-        <f t="shared" si="1"/>
-        <v>-1.5082956259426848E-3</v>
-      </c>
-      <c r="I18" s="41"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="16.2">
-      <c r="A19" s="23">
+      <c r="A19" s="20">
         <v>4</v>
       </c>
       <c r="B19" s="17" t="s">
@@ -1429,97 +1358,87 @@
       <c r="D19" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="20">
-        <v>19430</v>
-      </c>
-      <c r="F19" s="21">
-        <v>19450</v>
-      </c>
-      <c r="G19" s="20">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="H19" s="22">
-        <f t="shared" si="1"/>
-        <v>1.029336078229542E-3</v>
-      </c>
-      <c r="I19" s="42"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="40"/>
     </row>
     <row r="20" spans="1:9" ht="16.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="35"/>
+      <c r="A20" s="24"/>
+      <c r="B20" s="25"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="30"/>
     </row>
     <row r="21" spans="1:9" ht="15.6">
       <c r="A21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" ht="15.6">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="43"/>
-      <c r="H22" s="43"/>
-      <c r="I22" s="43"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
     </row>
     <row r="23" spans="1:9" ht="49.8" customHeight="1">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
+      <c r="B23" s="42"/>
+      <c r="C23" s="42"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
     </row>
     <row r="24" spans="1:9" ht="32.4" customHeight="1">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="46"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="44"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
     </row>
     <row r="25" spans="1:9" ht="16.8">
-      <c r="A25" s="38"/>
-      <c r="B25" s="39" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="38"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="21">
